--- a/fuentes/contenidos/grado04/guion08/SolicitudGrafica_CN_04_08_CO.xlsx
+++ b/fuentes/contenidos/grado04/guion08/SolicitudGrafica_CN_04_08_CO.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8955" tabRatio="500"/>
@@ -640,7 +640,7 @@
     <t>Trozo de hielo derritiéndose y que se vea el agua líquida</t>
   </si>
   <si>
-    <t>CN_04_01_CO</t>
+    <t>CN_04_08_CO</t>
   </si>
 </sst>
 </file>
@@ -2462,7 +2462,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="140" workbookViewId="0">
       <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
+      <selection pane="bottomLeft" activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -2675,7 +2675,7 @@
       </c>
       <c r="F10" s="14" t="str">
         <f>IF(OR(B10&lt;&gt;"",J10&lt;&gt;""),CONCATENATE($C$7,"_",$A10,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I10="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
-        <v>CN_04_01_CO_IMG01_small</v>
+        <v>CN_04_08_CO_IMG01_small</v>
       </c>
       <c r="G10" s="14" t="str">
         <f>IF(F10&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
@@ -2683,7 +2683,7 @@
       </c>
       <c r="H10" s="14" t="str">
         <f>IF(AND(I10&lt;&gt;"",I10&lt;&gt;0),IF(OR(B10&lt;&gt;"",J10&lt;&gt;""),CONCATENATE($C$7,"_",$A10,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
-        <v>CN_04_01_CO_IMG01_zoom</v>
+        <v>CN_04_08_CO_IMG01_zoom</v>
       </c>
       <c r="I10" s="14" t="str">
         <f>IF(OR(B10&lt;&gt;"",J10&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
@@ -2713,7 +2713,7 @@
       </c>
       <c r="F11" s="14" t="str">
         <f t="shared" ref="F11:F74" si="1">IF(OR(B11&lt;&gt;"",J11&lt;&gt;""),CONCATENATE($C$7,"_",$A11,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I11="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
-        <v>CN_04_01_CO_IMG02_small</v>
+        <v>CN_04_08_CO_IMG02_small</v>
       </c>
       <c r="G11" s="14" t="str">
         <f>IF(F11&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
@@ -2721,7 +2721,7 @@
       </c>
       <c r="H11" s="14" t="str">
         <f t="shared" ref="H11:H74" si="2">IF(AND(I11&lt;&gt;"",I11&lt;&gt;0),IF(OR(B11&lt;&gt;"",J11&lt;&gt;""),CONCATENATE($C$7,"_",$A11,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
-        <v>CN_04_01_CO_IMG02_zoom</v>
+        <v>CN_04_08_CO_IMG02_zoom</v>
       </c>
       <c r="I11" s="14" t="str">
         <f>IF(OR(B11&lt;&gt;"",J11&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
@@ -2752,7 +2752,7 @@
       </c>
       <c r="F12" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>CN_04_01_CO_IMG03_small</v>
+        <v>CN_04_08_CO_IMG03_small</v>
       </c>
       <c r="G12" s="14" t="str">
         <f>IF(F12&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
@@ -2760,7 +2760,7 @@
       </c>
       <c r="H12" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>CN_04_01_CO_IMG03_zoom</v>
+        <v>CN_04_08_CO_IMG03_zoom</v>
       </c>
       <c r="I12" s="14" t="str">
         <f>IF(OR(B12&lt;&gt;"",J12&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
@@ -2790,7 +2790,7 @@
       </c>
       <c r="F13" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>CN_04_01_CO_IMG04_small</v>
+        <v>CN_04_08_CO_IMG04_small</v>
       </c>
       <c r="G13" s="14" t="str">
         <f>IF(F13&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
@@ -2798,7 +2798,7 @@
       </c>
       <c r="H13" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>CN_04_01_CO_IMG04_zoom</v>
+        <v>CN_04_08_CO_IMG04_zoom</v>
       </c>
       <c r="I13" s="14" t="str">
         <f>IF(OR(B13&lt;&gt;"",J13&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
@@ -2828,7 +2828,7 @@
       </c>
       <c r="F14" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>CN_04_01_CO_IMG05_small</v>
+        <v>CN_04_08_CO_IMG05_small</v>
       </c>
       <c r="G14" s="14" t="str">
         <f>IF(F14&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
@@ -2836,7 +2836,7 @@
       </c>
       <c r="H14" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>CN_04_01_CO_IMG05_zoom</v>
+        <v>CN_04_08_CO_IMG05_zoom</v>
       </c>
       <c r="I14" s="14" t="str">
         <f>IF(OR(B14&lt;&gt;"",J14&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
@@ -2866,7 +2866,7 @@
       </c>
       <c r="F15" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>CN_04_01_CO_IMG06_small</v>
+        <v>CN_04_08_CO_IMG06_small</v>
       </c>
       <c r="G15" s="14" t="str">
         <f>IF(F15&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
@@ -2874,7 +2874,7 @@
       </c>
       <c r="H15" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>CN_04_01_CO_IMG06_zoom</v>
+        <v>CN_04_08_CO_IMG06_zoom</v>
       </c>
       <c r="I15" s="14" t="str">
         <f>IF(OR(B15&lt;&gt;"",J15&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
@@ -2904,7 +2904,7 @@
       </c>
       <c r="F16" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>CN_04_01_CO_IMG07_small</v>
+        <v>CN_04_08_CO_IMG07_small</v>
       </c>
       <c r="G16" s="14" t="str">
         <f>IF(F16&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
@@ -2912,7 +2912,7 @@
       </c>
       <c r="H16" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>CN_04_01_CO_IMG07_zoom</v>
+        <v>CN_04_08_CO_IMG07_zoom</v>
       </c>
       <c r="I16" s="14" t="str">
         <f>IF(OR(B16&lt;&gt;"",J16&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
@@ -2942,7 +2942,7 @@
       </c>
       <c r="F17" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>CN_04_01_CO_IMG08_small</v>
+        <v>CN_04_08_CO_IMG08_small</v>
       </c>
       <c r="G17" s="14" t="str">
         <f>IF(F17&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
@@ -2950,7 +2950,7 @@
       </c>
       <c r="H17" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>CN_04_01_CO_IMG08_zoom</v>
+        <v>CN_04_08_CO_IMG08_zoom</v>
       </c>
       <c r="I17" s="14" t="str">
         <f>IF(OR(B17&lt;&gt;"",J17&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
@@ -2980,7 +2980,7 @@
       </c>
       <c r="F18" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>CN_04_01_CO_IMG09_small</v>
+        <v>CN_04_08_CO_IMG09_small</v>
       </c>
       <c r="G18" s="14" t="str">
         <f>IF(F18&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
@@ -2988,7 +2988,7 @@
       </c>
       <c r="H18" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>CN_04_01_CO_IMG09_zoom</v>
+        <v>CN_04_08_CO_IMG09_zoom</v>
       </c>
       <c r="I18" s="14" t="str">
         <f>IF(OR(B18&lt;&gt;"",J18&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
@@ -3018,7 +3018,7 @@
       </c>
       <c r="F19" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>CN_04_01_CO_IMG10_small</v>
+        <v>CN_04_08_CO_IMG10_small</v>
       </c>
       <c r="G19" s="14" t="str">
         <f>IF(F19&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
@@ -3026,7 +3026,7 @@
       </c>
       <c r="H19" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>CN_04_01_CO_IMG10_zoom</v>
+        <v>CN_04_08_CO_IMG10_zoom</v>
       </c>
       <c r="I19" s="14" t="str">
         <f>IF(OR(B19&lt;&gt;"",J19&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
@@ -3056,7 +3056,7 @@
       </c>
       <c r="F20" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>CN_04_01_CO_IMG11_small</v>
+        <v>CN_04_08_CO_IMG11_small</v>
       </c>
       <c r="G20" s="14" t="str">
         <f>IF(F20&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
@@ -3064,7 +3064,7 @@
       </c>
       <c r="H20" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>CN_04_01_CO_IMG11_zoom</v>
+        <v>CN_04_08_CO_IMG11_zoom</v>
       </c>
       <c r="I20" s="14" t="str">
         <f>IF(OR(B20&lt;&gt;"",J20&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
@@ -3094,7 +3094,7 @@
       </c>
       <c r="F21" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>CN_04_01_CO_IMG12_small</v>
+        <v>CN_04_08_CO_IMG12_small</v>
       </c>
       <c r="G21" s="14" t="str">
         <f>IF(F21&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
@@ -3102,7 +3102,7 @@
       </c>
       <c r="H21" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>CN_04_01_CO_IMG12_zoom</v>
+        <v>CN_04_08_CO_IMG12_zoom</v>
       </c>
       <c r="I21" s="14" t="str">
         <f>IF(OR(B21&lt;&gt;"",J21&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
@@ -3132,7 +3132,7 @@
       </c>
       <c r="F22" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>CN_04_01_CO_IMG13_small</v>
+        <v>CN_04_08_CO_IMG13_small</v>
       </c>
       <c r="G22" s="14" t="str">
         <f>IF(F22&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
@@ -3140,7 +3140,7 @@
       </c>
       <c r="H22" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>CN_04_01_CO_IMG13_zoom</v>
+        <v>CN_04_08_CO_IMG13_zoom</v>
       </c>
       <c r="I22" s="14" t="str">
         <f>IF(OR(B22&lt;&gt;"",J22&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
@@ -3170,7 +3170,7 @@
       </c>
       <c r="F23" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>CN_04_01_CO_IMG14_small</v>
+        <v>CN_04_08_CO_IMG14_small</v>
       </c>
       <c r="G23" s="14" t="str">
         <f>IF(F23&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
@@ -3178,7 +3178,7 @@
       </c>
       <c r="H23" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>CN_04_01_CO_IMG14_zoom</v>
+        <v>CN_04_08_CO_IMG14_zoom</v>
       </c>
       <c r="I23" s="14" t="str">
         <f>IF(OR(B23&lt;&gt;"",J23&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
@@ -3208,7 +3208,7 @@
       </c>
       <c r="F24" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>CN_04_01_CO_IMG15_small</v>
+        <v>CN_04_08_CO_IMG15_small</v>
       </c>
       <c r="G24" s="14" t="str">
         <f>IF(F24&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
@@ -3216,7 +3216,7 @@
       </c>
       <c r="H24" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>CN_04_01_CO_IMG15_zoom</v>
+        <v>CN_04_08_CO_IMG15_zoom</v>
       </c>
       <c r="I24" s="14" t="str">
         <f>IF(OR(B24&lt;&gt;"",J24&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
@@ -3248,7 +3248,7 @@
       </c>
       <c r="F25" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>CN_04_01_CO_IMG16_small</v>
+        <v>CN_04_08_CO_IMG16_small</v>
       </c>
       <c r="G25" s="14" t="str">
         <f>IF(F25&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
@@ -3256,7 +3256,7 @@
       </c>
       <c r="H25" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>CN_04_01_CO_IMG16_zoom</v>
+        <v>CN_04_08_CO_IMG16_zoom</v>
       </c>
       <c r="I25" s="14" t="str">
         <f>IF(OR(B25&lt;&gt;"",J25&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
@@ -3286,7 +3286,7 @@
       </c>
       <c r="F26" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>CN_04_01_CO_IMG17_small</v>
+        <v>CN_04_08_CO_IMG17_small</v>
       </c>
       <c r="G26" s="14" t="str">
         <f>IF(F26&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
@@ -3294,7 +3294,7 @@
       </c>
       <c r="H26" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>CN_04_01_CO_IMG17_zoom</v>
+        <v>CN_04_08_CO_IMG17_zoom</v>
       </c>
       <c r="I26" s="14" t="str">
         <f>IF(OR(B26&lt;&gt;"",J26&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
@@ -3324,7 +3324,7 @@
       </c>
       <c r="F27" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>CN_04_01_CO_IMG18_small</v>
+        <v>CN_04_08_CO_IMG18_small</v>
       </c>
       <c r="G27" s="14" t="str">
         <f>IF(F27&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
@@ -3332,7 +3332,7 @@
       </c>
       <c r="H27" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>CN_04_01_CO_IMG18_zoom</v>
+        <v>CN_04_08_CO_IMG18_zoom</v>
       </c>
       <c r="I27" s="14" t="str">
         <f>IF(OR(B27&lt;&gt;"",J27&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
@@ -3362,7 +3362,7 @@
       </c>
       <c r="F28" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>CN_04_01_CO_IMG19_small</v>
+        <v>CN_04_08_CO_IMG19_small</v>
       </c>
       <c r="G28" s="14" t="str">
         <f>IF(F28&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
@@ -3370,7 +3370,7 @@
       </c>
       <c r="H28" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>CN_04_01_CO_IMG19_zoom</v>
+        <v>CN_04_08_CO_IMG19_zoom</v>
       </c>
       <c r="I28" s="14" t="str">
         <f>IF(OR(B28&lt;&gt;"",J28&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>

--- a/fuentes/contenidos/grado04/guion08/SolicitudGrafica_CN_04_08_CO.xlsx
+++ b/fuentes/contenidos/grado04/guion08/SolicitudGrafica_CN_04_08_CO.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8955" tabRatio="500"/>
+    <workbookView xWindow="760" yWindow="0" windowWidth="34240" windowHeight="18120" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Solicitud gráfica" sheetId="1" r:id="rId1"/>
     <sheet name="Ayuda" sheetId="2" r:id="rId2"/>
     <sheet name="Definición técnica de imagenes" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="192">
   <si>
     <t>Fecha:</t>
   </si>
@@ -641,6 +641,9 @@
   </si>
   <si>
     <t>CN_04_08_CO</t>
+  </si>
+  <si>
+    <t>CREDITO:   http://commons.wikimedia.org/wiki/File:Estados.svg     Autor: Josell7</t>
   </si>
 </sst>
 </file>
@@ -1047,11 +1050,11 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -1060,7 +1063,7 @@
       <left/>
       <right/>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -1068,17 +1071,17 @@
     <border>
       <left/>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
@@ -1088,7 +1091,7 @@
     <border>
       <left/>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
@@ -1096,12 +1099,12 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1110,18 +1113,18 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1151,11 +1154,11 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
         <color auto="1"/>
@@ -1165,10 +1168,10 @@
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
         <color auto="1"/>
@@ -1178,7 +1181,7 @@
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
         <color auto="1"/>
@@ -1252,16 +1255,16 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1269,23 +1272,23 @@
       <left/>
       <right/>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1317,21 +1320,21 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="52">
+  <cellStyleXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1384,8 +1387,61 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="124">
+  <cellXfs count="125">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1711,8 +1767,11 @@
     <xf numFmtId="0" fontId="15" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="51" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="52">
+  <cellStyles count="105">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="5" builtinId="8" hidden="1"/>
@@ -1764,6 +1823,59 @@
     <cellStyle name="Hipervínculo visitado" xfId="46" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="48" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="53" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="55" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="57" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="59" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="61" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="63" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="65" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="67" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="69" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="71" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="73" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="75" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="77" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="79" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="81" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="83" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="85" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="87" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="89" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="91" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="93" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="95" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="97" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="99" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="101" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="103" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="104" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="3">
@@ -1850,15 +1962,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>19050</xdr:colOff>
+          <xdr:colOff>25400</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:rowOff>12700</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>1038225</xdr:colOff>
+          <xdr:colOff>1041400</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>238125</xdr:rowOff>
+          <xdr:rowOff>241300</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1891,15 +2003,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>1047750</xdr:colOff>
+          <xdr:colOff>1054100</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:rowOff>12700</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>866775</xdr:colOff>
+          <xdr:colOff>863600</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>238125</xdr:rowOff>
+          <xdr:rowOff>241300</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1932,15 +2044,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>19050</xdr:colOff>
+          <xdr:colOff>25400</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:rowOff>12700</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>238125</xdr:rowOff>
+          <xdr:rowOff>241300</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1975,13 +2087,13 @@
           <xdr:col>2</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>485775</xdr:rowOff>
+          <xdr:rowOff>482600</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>1019175</xdr:colOff>
+          <xdr:colOff>1016000</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>714375</xdr:rowOff>
+          <xdr:rowOff>711200</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2014,15 +2126,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>1019175</xdr:colOff>
+          <xdr:colOff>1016000</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>485775</xdr:rowOff>
+          <xdr:rowOff>482600</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>828675</xdr:colOff>
+          <xdr:colOff>825500</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>714375</xdr:rowOff>
+          <xdr:rowOff>711200</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2055,15 +2167,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>485775</xdr:rowOff>
+          <xdr:rowOff>482600</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
           <xdr:colOff>838200</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>714375</xdr:rowOff>
+          <xdr:rowOff>711200</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2096,15 +2208,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>485775</xdr:rowOff>
+          <xdr:rowOff>482600</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
           <xdr:colOff>838200</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>714375</xdr:rowOff>
+          <xdr:rowOff>711200</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2457,33 +2569,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Hoja1"/>
+  <sheetPr codeName="Hoja1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:P108"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="140" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C13" sqref="C13"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <pane ySplit="9" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="7.875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="21" style="2" customWidth="1"/>
-    <col min="3" max="3" width="21.25" style="2" customWidth="1"/>
+    <col min="1" max="1" width="7.83203125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="33.5" style="2" customWidth="1"/>
+    <col min="3" max="3" width="21.1640625" style="2" customWidth="1"/>
     <col min="4" max="4" width="18.5" style="2" customWidth="1"/>
-    <col min="5" max="5" width="13.125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="28.25" style="2" customWidth="1"/>
+    <col min="5" max="5" width="13.1640625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="28.1640625" style="2" customWidth="1"/>
     <col min="7" max="7" width="20.5" style="2" customWidth="1"/>
-    <col min="8" max="8" width="28.625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="28.6640625" style="2" customWidth="1"/>
     <col min="9" max="9" width="20.5" style="2" customWidth="1"/>
-    <col min="10" max="10" width="34.875" style="17" customWidth="1"/>
-    <col min="11" max="11" width="29.625" style="17" customWidth="1"/>
-    <col min="12" max="12" width="20.375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="82.5" style="17" customWidth="1"/>
+    <col min="11" max="11" width="29.6640625" style="17" customWidth="1"/>
+    <col min="12" max="12" width="20.33203125" style="2" customWidth="1"/>
     <col min="13" max="13" width="14.5" style="2" customWidth="1"/>
-    <col min="14" max="16384" width="10.875" style="2"/>
+    <col min="14" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" ht="16.5" thickBot="1">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -2495,7 +2607,7 @@
       <c r="J1" s="16"/>
       <c r="K1" s="16"/>
     </row>
-    <row r="2" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" ht="15.75">
       <c r="A2" s="1"/>
       <c r="B2" s="3" t="s">
         <v>129</v>
@@ -2512,7 +2624,7 @@
       <c r="I2" s="50"/>
       <c r="J2" s="16"/>
     </row>
-    <row r="3" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" ht="15.75">
       <c r="A3" s="1"/>
       <c r="B3" s="4" t="s">
         <v>8</v>
@@ -2529,7 +2641,7 @@
       <c r="I3" s="50"/>
       <c r="J3" s="16"/>
     </row>
-    <row r="4" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" ht="16.5">
       <c r="A4" s="1"/>
       <c r="B4" s="4" t="s">
         <v>54</v>
@@ -2550,7 +2662,7 @@
       <c r="J4" s="16"/>
       <c r="K4" s="16"/>
     </row>
-    <row r="5" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" ht="16.5" thickBot="1">
       <c r="A5" s="1"/>
       <c r="B5" s="6" t="s">
         <v>1</v>
@@ -2570,7 +2682,7 @@
       <c r="J5" s="16"/>
       <c r="K5" s="16"/>
     </row>
-    <row r="6" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" ht="16.5" thickBot="1">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -2583,7 +2695,7 @@
       <c r="J6" s="16"/>
       <c r="K6" s="16"/>
     </row>
-    <row r="7" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" ht="15" customHeight="1">
       <c r="A7" s="1"/>
       <c r="B7" s="34" t="s">
         <v>40</v>
@@ -2601,7 +2713,7 @@
       <c r="J7" s="16"/>
       <c r="K7" s="16"/>
     </row>
-    <row r="8" spans="1:16" s="9" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" s="9" customFormat="1" ht="16.5" thickBot="1">
       <c r="A8" s="10"/>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
@@ -2621,7 +2733,7 @@
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
     </row>
-    <row r="9" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" ht="14" thickBot="1">
       <c r="A9" s="89" t="s">
         <v>2</v>
       </c>
@@ -2656,7 +2768,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:16" s="12" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" s="12" customFormat="1" ht="15">
       <c r="A10" s="75" t="s">
         <v>142</v>
       </c>
@@ -2694,7 +2806,7 @@
       </c>
       <c r="K10" s="19"/>
     </row>
-    <row r="11" spans="1:16" s="12" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" s="12" customFormat="1" ht="14" customHeight="1">
       <c r="A11" s="75" t="s">
         <v>151</v>
       </c>
@@ -2732,7 +2844,7 @@
       </c>
       <c r="K11" s="15"/>
     </row>
-    <row r="12" spans="1:16" s="12" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" s="12" customFormat="1" ht="15">
       <c r="A12" s="13" t="str">
         <f t="shared" ref="A12:A36" si="3">IF(OR(B12&lt;&gt;"",J12&lt;&gt;""),CONCATENATE(LEFT(A11,3),IF(MID(A11,4,2)+1&lt;10,CONCATENATE("0",MID(A11,4,2)+1))),"")</f>
         <v>IMG03</v>
@@ -2771,7 +2883,7 @@
       </c>
       <c r="K12" s="19"/>
     </row>
-    <row r="13" spans="1:16" s="12" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" s="12" customFormat="1" ht="15">
       <c r="A13" s="75" t="s">
         <v>154</v>
       </c>
@@ -2809,7 +2921,7 @@
       </c>
       <c r="K13" s="19"/>
     </row>
-    <row r="14" spans="1:16" s="12" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" s="12" customFormat="1" ht="15">
       <c r="A14" s="75" t="s">
         <v>155</v>
       </c>
@@ -2847,7 +2959,7 @@
       </c>
       <c r="K14" s="19"/>
     </row>
-    <row r="15" spans="1:16" s="12" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" s="12" customFormat="1" ht="15.75">
       <c r="A15" s="75" t="s">
         <v>156</v>
       </c>
@@ -2885,7 +2997,7 @@
       </c>
       <c r="K15" s="21"/>
     </row>
-    <row r="16" spans="1:16" s="12" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" s="12" customFormat="1" ht="16.5">
       <c r="A16" s="75" t="s">
         <v>157</v>
       </c>
@@ -2923,7 +3035,7 @@
       </c>
       <c r="K16" s="31"/>
     </row>
-    <row r="17" spans="1:11" s="12" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" s="12" customFormat="1" ht="15.75">
       <c r="A17" s="75" t="s">
         <v>158</v>
       </c>
@@ -2961,7 +3073,7 @@
       </c>
       <c r="K17" s="21"/>
     </row>
-    <row r="18" spans="1:11" s="12" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" s="12" customFormat="1" ht="15.75">
       <c r="A18" s="75" t="s">
         <v>159</v>
       </c>
@@ -2999,7 +3111,7 @@
       </c>
       <c r="K18" s="21"/>
     </row>
-    <row r="19" spans="1:11" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" s="12" customFormat="1" ht="15">
       <c r="A19" s="75" t="s">
         <v>160</v>
       </c>
@@ -3037,7 +3149,7 @@
       </c>
       <c r="K19" s="31"/>
     </row>
-    <row r="20" spans="1:11" s="12" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" s="12" customFormat="1" ht="15.75">
       <c r="A20" s="75" t="s">
         <v>161</v>
       </c>
@@ -3075,7 +3187,7 @@
       </c>
       <c r="K20" s="21"/>
     </row>
-    <row r="21" spans="1:11" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" s="12" customFormat="1" ht="15">
       <c r="A21" s="75" t="s">
         <v>162</v>
       </c>
@@ -3113,7 +3225,7 @@
       </c>
       <c r="K21" s="21"/>
     </row>
-    <row r="22" spans="1:11" s="12" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" s="12" customFormat="1" ht="15.75">
       <c r="A22" s="75" t="s">
         <v>163</v>
       </c>
@@ -3151,7 +3263,7 @@
       </c>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" s="12" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" s="12" customFormat="1" ht="15">
       <c r="A23" s="75" t="s">
         <v>164</v>
       </c>
@@ -3189,7 +3301,7 @@
       </c>
       <c r="K23" s="19"/>
     </row>
-    <row r="24" spans="1:11" s="12" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" s="12" customFormat="1" ht="15">
       <c r="A24" s="75" t="s">
         <v>165</v>
       </c>
@@ -3229,7 +3341,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="25" spans="1:11" s="12" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" s="12" customFormat="1" ht="78" customHeight="1">
       <c r="A25" s="75" t="s">
         <v>166</v>
       </c>
@@ -3265,9 +3377,12 @@
       <c r="J25" s="83" t="s">
         <v>184</v>
       </c>
-      <c r="K25" s="19"/>
-    </row>
-    <row r="26" spans="1:11" s="12" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K25" s="62" t="s">
+        <v>191</v>
+      </c>
+      <c r="L25" s="124"/>
+    </row>
+    <row r="26" spans="1:12" s="12" customFormat="1" ht="15">
       <c r="A26" s="75" t="s">
         <v>167</v>
       </c>
@@ -3305,7 +3420,7 @@
       </c>
       <c r="K26" s="19"/>
     </row>
-    <row r="27" spans="1:11" s="12" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" s="12" customFormat="1" ht="15">
       <c r="A27" s="75" t="s">
         <v>168</v>
       </c>
@@ -3343,7 +3458,7 @@
       </c>
       <c r="K27" s="19"/>
     </row>
-    <row r="28" spans="1:11" s="12" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" s="12" customFormat="1" ht="15">
       <c r="A28" s="75" t="s">
         <v>169</v>
       </c>
@@ -3381,7 +3496,7 @@
       </c>
       <c r="K28" s="19"/>
     </row>
-    <row r="29" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" s="12" customFormat="1">
       <c r="A29" s="75"/>
       <c r="B29" s="79"/>
       <c r="C29" s="28"/>
@@ -3406,7 +3521,7 @@
       <c r="J29" s="19"/>
       <c r="K29" s="19"/>
     </row>
-    <row r="30" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" s="12" customFormat="1">
       <c r="A30" s="13"/>
       <c r="B30" s="79"/>
       <c r="C30" s="28"/>
@@ -3431,7 +3546,7 @@
       <c r="J30" s="19"/>
       <c r="K30" s="19"/>
     </row>
-    <row r="31" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" s="12" customFormat="1">
       <c r="A31" s="75"/>
       <c r="B31" s="79"/>
       <c r="C31" s="28"/>
@@ -3456,7 +3571,7 @@
       <c r="J31" s="19"/>
       <c r="K31" s="19"/>
     </row>
-    <row r="32" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" s="12" customFormat="1">
       <c r="A32" s="75"/>
       <c r="B32" s="79"/>
       <c r="C32" s="28"/>
@@ -3481,7 +3596,7 @@
       <c r="J32" s="19"/>
       <c r="K32" s="19"/>
     </row>
-    <row r="33" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" s="12" customFormat="1">
       <c r="A33" s="13"/>
       <c r="B33" s="79"/>
       <c r="C33" s="28"/>
@@ -3506,7 +3621,7 @@
       <c r="J33" s="19"/>
       <c r="K33" s="19"/>
     </row>
-    <row r="34" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" s="12" customFormat="1">
       <c r="A34" s="75"/>
       <c r="B34" s="79"/>
       <c r="C34" s="28"/>
@@ -3531,7 +3646,7 @@
       <c r="J34" s="19"/>
       <c r="K34" s="19"/>
     </row>
-    <row r="35" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" s="12" customFormat="1">
       <c r="A35" s="75"/>
       <c r="B35" s="80"/>
       <c r="C35" s="27"/>
@@ -3556,7 +3671,7 @@
       <c r="J35" s="14"/>
       <c r="K35" s="15"/>
     </row>
-    <row r="36" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A36" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -3584,7 +3699,7 @@
       <c r="J36" s="14"/>
       <c r="K36" s="15"/>
     </row>
-    <row r="37" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" s="12" customFormat="1">
       <c r="A37" s="13"/>
       <c r="B37" s="80"/>
       <c r="C37" s="27"/>
@@ -3609,7 +3724,7 @@
       <c r="J37" s="22"/>
       <c r="K37" s="15"/>
     </row>
-    <row r="38" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" s="12" customFormat="1">
       <c r="A38" s="13"/>
       <c r="B38" s="77"/>
       <c r="C38" s="30"/>
@@ -3634,7 +3749,7 @@
       <c r="J38" s="23"/>
       <c r="K38" s="15"/>
     </row>
-    <row r="39" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" s="12" customFormat="1">
       <c r="A39" s="13"/>
       <c r="B39" s="76"/>
       <c r="C39" s="27"/>
@@ -3659,7 +3774,7 @@
       <c r="J39" s="14"/>
       <c r="K39" s="15"/>
     </row>
-    <row r="40" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" s="12" customFormat="1">
       <c r="A40" s="13"/>
       <c r="B40" s="76"/>
       <c r="C40" s="27"/>
@@ -3684,7 +3799,7 @@
       <c r="J40" s="14"/>
       <c r="K40" s="15"/>
     </row>
-    <row r="41" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" s="12" customFormat="1">
       <c r="A41" s="13"/>
       <c r="B41" s="76"/>
       <c r="C41" s="27"/>
@@ -3709,7 +3824,7 @@
       <c r="J41" s="14"/>
       <c r="K41" s="15"/>
     </row>
-    <row r="42" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" s="12" customFormat="1">
       <c r="A42" s="13"/>
       <c r="B42" s="76"/>
       <c r="C42" s="27"/>
@@ -3734,7 +3849,7 @@
       <c r="J42" s="14"/>
       <c r="K42" s="15"/>
     </row>
-    <row r="43" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" s="12" customFormat="1">
       <c r="A43" s="13"/>
       <c r="B43" s="76"/>
       <c r="C43" s="27"/>
@@ -3759,7 +3874,7 @@
       <c r="J43" s="14"/>
       <c r="K43" s="15"/>
     </row>
-    <row r="44" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" s="12" customFormat="1">
       <c r="A44" s="13"/>
       <c r="B44" s="76"/>
       <c r="C44" s="27"/>
@@ -3784,7 +3899,7 @@
       <c r="J44" s="14"/>
       <c r="K44" s="15"/>
     </row>
-    <row r="45" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" s="12" customFormat="1">
       <c r="A45" s="13"/>
       <c r="B45" s="76"/>
       <c r="C45" s="27"/>
@@ -3809,7 +3924,7 @@
       <c r="J45" s="14"/>
       <c r="K45" s="15"/>
     </row>
-    <row r="46" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" s="12" customFormat="1">
       <c r="A46" s="13"/>
       <c r="B46" s="76"/>
       <c r="C46" s="27"/>
@@ -3834,7 +3949,7 @@
       <c r="J46" s="14"/>
       <c r="K46" s="15"/>
     </row>
-    <row r="47" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" s="12" customFormat="1">
       <c r="A47" s="13"/>
       <c r="B47" s="76"/>
       <c r="C47" s="27"/>
@@ -3859,7 +3974,7 @@
       <c r="J47" s="14"/>
       <c r="K47" s="15"/>
     </row>
-    <row r="48" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" s="12" customFormat="1">
       <c r="A48" s="13"/>
       <c r="B48" s="27"/>
       <c r="C48" s="27"/>
@@ -3884,7 +3999,7 @@
       <c r="J48" s="14"/>
       <c r="K48" s="15"/>
     </row>
-    <row r="49" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" s="12" customFormat="1">
       <c r="A49" s="13"/>
       <c r="B49" s="27"/>
       <c r="C49" s="27"/>
@@ -3909,7 +4024,7 @@
       <c r="J49" s="14"/>
       <c r="K49" s="15"/>
     </row>
-    <row r="50" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" s="12" customFormat="1">
       <c r="A50" s="13"/>
       <c r="B50" s="27"/>
       <c r="C50" s="27"/>
@@ -3934,7 +4049,7 @@
       <c r="J50" s="14"/>
       <c r="K50" s="15"/>
     </row>
-    <row r="51" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" s="12" customFormat="1">
       <c r="A51" s="13"/>
       <c r="B51" s="27"/>
       <c r="C51" s="27"/>
@@ -3959,7 +4074,7 @@
       <c r="J51" s="14"/>
       <c r="K51" s="15"/>
     </row>
-    <row r="52" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" s="12" customFormat="1">
       <c r="A52" s="13"/>
       <c r="B52" s="27"/>
       <c r="C52" s="27"/>
@@ -3984,7 +4099,7 @@
       <c r="J52" s="14"/>
       <c r="K52" s="15"/>
     </row>
-    <row r="53" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" s="12" customFormat="1">
       <c r="A53" s="13"/>
       <c r="B53" s="27"/>
       <c r="C53" s="27"/>
@@ -4009,7 +4124,7 @@
       <c r="J53" s="14"/>
       <c r="K53" s="15"/>
     </row>
-    <row r="54" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" s="12" customFormat="1">
       <c r="A54" s="13"/>
       <c r="B54" s="27"/>
       <c r="C54" s="27"/>
@@ -4034,7 +4149,7 @@
       <c r="J54" s="14"/>
       <c r="K54" s="15"/>
     </row>
-    <row r="55" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" s="12" customFormat="1">
       <c r="A55" s="13"/>
       <c r="B55" s="27"/>
       <c r="C55" s="27"/>
@@ -4059,7 +4174,7 @@
       <c r="J55" s="14"/>
       <c r="K55" s="15"/>
     </row>
-    <row r="56" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" s="12" customFormat="1">
       <c r="A56" s="13"/>
       <c r="B56" s="27"/>
       <c r="C56" s="27"/>
@@ -4084,7 +4199,7 @@
       <c r="J56" s="14"/>
       <c r="K56" s="15"/>
     </row>
-    <row r="57" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" s="12" customFormat="1">
       <c r="A57" s="13"/>
       <c r="B57" s="27"/>
       <c r="C57" s="27"/>
@@ -4109,7 +4224,7 @@
       <c r="J57" s="14"/>
       <c r="K57" s="15"/>
     </row>
-    <row r="58" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" s="12" customFormat="1">
       <c r="A58" s="13"/>
       <c r="B58" s="27"/>
       <c r="C58" s="27"/>
@@ -4134,7 +4249,7 @@
       <c r="J58" s="14"/>
       <c r="K58" s="15"/>
     </row>
-    <row r="59" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" s="12" customFormat="1">
       <c r="A59" s="13"/>
       <c r="B59" s="27"/>
       <c r="C59" s="27"/>
@@ -4159,7 +4274,7 @@
       <c r="J59" s="14"/>
       <c r="K59" s="15"/>
     </row>
-    <row r="60" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" s="12" customFormat="1">
       <c r="A60" s="13"/>
       <c r="B60" s="27"/>
       <c r="C60" s="27"/>
@@ -4184,7 +4299,7 @@
       <c r="J60" s="14"/>
       <c r="K60" s="15"/>
     </row>
-    <row r="61" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" s="12" customFormat="1">
       <c r="A61" s="13"/>
       <c r="B61" s="27"/>
       <c r="C61" s="27"/>
@@ -4209,7 +4324,7 @@
       <c r="J61" s="14"/>
       <c r="K61" s="15"/>
     </row>
-    <row r="62" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" s="12" customFormat="1">
       <c r="A62" s="13"/>
       <c r="B62" s="13"/>
       <c r="C62" s="13"/>
@@ -4234,7 +4349,7 @@
       <c r="J62" s="14"/>
       <c r="K62" s="15"/>
     </row>
-    <row r="63" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" s="12" customFormat="1">
       <c r="A63" s="13"/>
       <c r="B63" s="13"/>
       <c r="C63" s="13"/>
@@ -4259,7 +4374,7 @@
       <c r="J63" s="14"/>
       <c r="K63" s="15"/>
     </row>
-    <row r="64" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" s="12" customFormat="1">
       <c r="A64" s="13"/>
       <c r="B64" s="13"/>
       <c r="C64" s="13"/>
@@ -4284,7 +4399,7 @@
       <c r="J64" s="14"/>
       <c r="K64" s="15"/>
     </row>
-    <row r="65" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" s="12" customFormat="1">
       <c r="A65" s="13"/>
       <c r="B65" s="13"/>
       <c r="C65" s="13"/>
@@ -4309,7 +4424,7 @@
       <c r="J65" s="14"/>
       <c r="K65" s="15"/>
     </row>
-    <row r="66" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" s="12" customFormat="1">
       <c r="A66" s="13"/>
       <c r="B66" s="13"/>
       <c r="C66" s="13"/>
@@ -4334,7 +4449,7 @@
       <c r="J66" s="14"/>
       <c r="K66" s="15"/>
     </row>
-    <row r="67" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" s="12" customFormat="1">
       <c r="A67" s="13"/>
       <c r="B67" s="13"/>
       <c r="C67" s="13"/>
@@ -4359,7 +4474,7 @@
       <c r="J67" s="14"/>
       <c r="K67" s="15"/>
     </row>
-    <row r="68" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" s="12" customFormat="1">
       <c r="A68" s="13"/>
       <c r="B68" s="13"/>
       <c r="C68" s="13"/>
@@ -4384,7 +4499,7 @@
       <c r="J68" s="14"/>
       <c r="K68" s="15"/>
     </row>
-    <row r="69" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" s="12" customFormat="1">
       <c r="A69" s="13"/>
       <c r="B69" s="13"/>
       <c r="C69" s="13"/>
@@ -4409,7 +4524,7 @@
       <c r="J69" s="14"/>
       <c r="K69" s="15"/>
     </row>
-    <row r="70" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" s="12" customFormat="1">
       <c r="A70" s="13"/>
       <c r="B70" s="13"/>
       <c r="C70" s="13"/>
@@ -4434,7 +4549,7 @@
       <c r="J70" s="14"/>
       <c r="K70" s="15"/>
     </row>
-    <row r="71" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" s="12" customFormat="1">
       <c r="A71" s="13"/>
       <c r="B71" s="13"/>
       <c r="C71" s="13"/>
@@ -4459,7 +4574,7 @@
       <c r="J71" s="14"/>
       <c r="K71" s="15"/>
     </row>
-    <row r="72" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" s="12" customFormat="1">
       <c r="A72" s="13"/>
       <c r="B72" s="13"/>
       <c r="C72" s="13"/>
@@ -4484,7 +4599,7 @@
       <c r="J72" s="14"/>
       <c r="K72" s="15"/>
     </row>
-    <row r="73" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" s="12" customFormat="1">
       <c r="A73" s="13"/>
       <c r="B73" s="13"/>
       <c r="C73" s="13"/>
@@ -4509,7 +4624,7 @@
       <c r="J73" s="14"/>
       <c r="K73" s="15"/>
     </row>
-    <row r="74" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" s="12" customFormat="1">
       <c r="A74" s="13"/>
       <c r="B74" s="13"/>
       <c r="C74" s="13"/>
@@ -4534,7 +4649,7 @@
       <c r="J74" s="14"/>
       <c r="K74" s="15"/>
     </row>
-    <row r="75" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" s="12" customFormat="1">
       <c r="A75" s="13"/>
       <c r="B75" s="13"/>
       <c r="C75" s="13"/>
@@ -4559,7 +4674,7 @@
       <c r="J75" s="14"/>
       <c r="K75" s="15"/>
     </row>
-    <row r="76" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" s="12" customFormat="1">
       <c r="A76" s="13"/>
       <c r="B76" s="13"/>
       <c r="C76" s="13"/>
@@ -4584,7 +4699,7 @@
       <c r="J76" s="14"/>
       <c r="K76" s="15"/>
     </row>
-    <row r="77" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" s="12" customFormat="1">
       <c r="A77" s="13"/>
       <c r="B77" s="13"/>
       <c r="C77" s="13"/>
@@ -4609,7 +4724,7 @@
       <c r="J77" s="14"/>
       <c r="K77" s="15"/>
     </row>
-    <row r="78" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" s="12" customFormat="1">
       <c r="A78" s="13"/>
       <c r="B78" s="13"/>
       <c r="C78" s="13"/>
@@ -4634,7 +4749,7 @@
       <c r="J78" s="14"/>
       <c r="K78" s="15"/>
     </row>
-    <row r="79" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" s="12" customFormat="1">
       <c r="A79" s="13"/>
       <c r="B79" s="13"/>
       <c r="C79" s="13"/>
@@ -4659,7 +4774,7 @@
       <c r="J79" s="14"/>
       <c r="K79" s="15"/>
     </row>
-    <row r="80" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" s="12" customFormat="1">
       <c r="A80" s="13"/>
       <c r="B80" s="13"/>
       <c r="C80" s="13"/>
@@ -4684,7 +4799,7 @@
       <c r="J80" s="14"/>
       <c r="K80" s="15"/>
     </row>
-    <row r="81" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" s="12" customFormat="1">
       <c r="A81" s="13"/>
       <c r="B81" s="13"/>
       <c r="C81" s="13"/>
@@ -4709,7 +4824,7 @@
       <c r="J81" s="14"/>
       <c r="K81" s="15"/>
     </row>
-    <row r="82" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" s="12" customFormat="1">
       <c r="A82" s="13"/>
       <c r="B82" s="13"/>
       <c r="C82" s="13"/>
@@ -4734,7 +4849,7 @@
       <c r="J82" s="14"/>
       <c r="K82" s="15"/>
     </row>
-    <row r="83" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" s="12" customFormat="1">
       <c r="A83" s="13"/>
       <c r="B83" s="13"/>
       <c r="C83" s="13"/>
@@ -4759,7 +4874,7 @@
       <c r="J83" s="14"/>
       <c r="K83" s="15"/>
     </row>
-    <row r="84" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" s="12" customFormat="1">
       <c r="A84" s="13"/>
       <c r="B84" s="13"/>
       <c r="C84" s="13"/>
@@ -4784,7 +4899,7 @@
       <c r="J84" s="14"/>
       <c r="K84" s="15"/>
     </row>
-    <row r="85" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" s="12" customFormat="1">
       <c r="A85" s="13"/>
       <c r="B85" s="13"/>
       <c r="C85" s="13"/>
@@ -4809,7 +4924,7 @@
       <c r="J85" s="14"/>
       <c r="K85" s="15"/>
     </row>
-    <row r="86" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" s="12" customFormat="1">
       <c r="A86" s="13"/>
       <c r="B86" s="13"/>
       <c r="C86" s="13"/>
@@ -4834,7 +4949,7 @@
       <c r="J86" s="14"/>
       <c r="K86" s="15"/>
     </row>
-    <row r="87" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" s="12" customFormat="1">
       <c r="A87" s="13"/>
       <c r="B87" s="13"/>
       <c r="C87" s="13"/>
@@ -4859,7 +4974,7 @@
       <c r="J87" s="14"/>
       <c r="K87" s="15"/>
     </row>
-    <row r="88" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" s="12" customFormat="1">
       <c r="A88" s="13"/>
       <c r="B88" s="13"/>
       <c r="C88" s="13"/>
@@ -4884,7 +4999,7 @@
       <c r="J88" s="14"/>
       <c r="K88" s="15"/>
     </row>
-    <row r="89" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" s="12" customFormat="1">
       <c r="A89" s="13"/>
       <c r="B89" s="13"/>
       <c r="C89" s="13"/>
@@ -4909,7 +5024,7 @@
       <c r="J89" s="14"/>
       <c r="K89" s="15"/>
     </row>
-    <row r="90" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" s="12" customFormat="1">
       <c r="A90" s="13"/>
       <c r="B90" s="13"/>
       <c r="C90" s="13"/>
@@ -4934,7 +5049,7 @@
       <c r="J90" s="14"/>
       <c r="K90" s="15"/>
     </row>
-    <row r="91" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" s="12" customFormat="1">
       <c r="A91" s="13"/>
       <c r="B91" s="13"/>
       <c r="C91" s="13"/>
@@ -4959,7 +5074,7 @@
       <c r="J91" s="14"/>
       <c r="K91" s="15"/>
     </row>
-    <row r="92" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" s="12" customFormat="1">
       <c r="A92" s="13"/>
       <c r="B92" s="13"/>
       <c r="C92" s="13"/>
@@ -4984,7 +5099,7 @@
       <c r="J92" s="14"/>
       <c r="K92" s="15"/>
     </row>
-    <row r="93" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" s="12" customFormat="1">
       <c r="A93" s="13"/>
       <c r="B93" s="13"/>
       <c r="C93" s="13"/>
@@ -5009,7 +5124,7 @@
       <c r="J93" s="14"/>
       <c r="K93" s="15"/>
     </row>
-    <row r="94" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" s="12" customFormat="1">
       <c r="A94" s="13"/>
       <c r="B94" s="13"/>
       <c r="C94" s="13"/>
@@ -5034,7 +5149,7 @@
       <c r="J94" s="14"/>
       <c r="K94" s="15"/>
     </row>
-    <row r="95" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" s="12" customFormat="1">
       <c r="A95" s="13"/>
       <c r="B95" s="13"/>
       <c r="C95" s="13"/>
@@ -5059,7 +5174,7 @@
       <c r="J95" s="14"/>
       <c r="K95" s="15"/>
     </row>
-    <row r="96" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" s="12" customFormat="1">
       <c r="A96" s="13"/>
       <c r="B96" s="13"/>
       <c r="C96" s="13"/>
@@ -5084,7 +5199,7 @@
       <c r="J96" s="14"/>
       <c r="K96" s="15"/>
     </row>
-    <row r="97" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" s="12" customFormat="1">
       <c r="A97" s="13"/>
       <c r="B97" s="13"/>
       <c r="C97" s="13"/>
@@ -5109,7 +5224,7 @@
       <c r="J97" s="14"/>
       <c r="K97" s="15"/>
     </row>
-    <row r="98" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" s="12" customFormat="1">
       <c r="A98" s="13"/>
       <c r="B98" s="13"/>
       <c r="C98" s="13"/>
@@ -5134,7 +5249,7 @@
       <c r="J98" s="14"/>
       <c r="K98" s="15"/>
     </row>
-    <row r="99" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" s="12" customFormat="1">
       <c r="A99" s="13"/>
       <c r="B99" s="13"/>
       <c r="C99" s="13"/>
@@ -5159,7 +5274,7 @@
       <c r="J99" s="14"/>
       <c r="K99" s="15"/>
     </row>
-    <row r="100" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" s="12" customFormat="1">
       <c r="A100" s="13"/>
       <c r="B100" s="13"/>
       <c r="C100" s="13"/>
@@ -5184,7 +5299,7 @@
       <c r="J100" s="14"/>
       <c r="K100" s="15"/>
     </row>
-    <row r="101" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" s="12" customFormat="1">
       <c r="A101" s="13"/>
       <c r="B101" s="13"/>
       <c r="C101" s="13"/>
@@ -5209,7 +5324,7 @@
       <c r="J101" s="14"/>
       <c r="K101" s="15"/>
     </row>
-    <row r="102" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" s="12" customFormat="1">
       <c r="A102" s="13"/>
       <c r="B102" s="13"/>
       <c r="C102" s="13"/>
@@ -5234,7 +5349,7 @@
       <c r="J102" s="14"/>
       <c r="K102" s="15"/>
     </row>
-    <row r="103" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" s="12" customFormat="1">
       <c r="A103" s="13"/>
       <c r="B103" s="13"/>
       <c r="C103" s="13"/>
@@ -5259,7 +5374,7 @@
       <c r="J103" s="14"/>
       <c r="K103" s="15"/>
     </row>
-    <row r="104" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" s="12" customFormat="1">
       <c r="A104" s="13"/>
       <c r="B104" s="13"/>
       <c r="C104" s="13"/>
@@ -5284,7 +5399,7 @@
       <c r="J104" s="14"/>
       <c r="K104" s="15"/>
     </row>
-    <row r="105" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" s="12" customFormat="1">
       <c r="A105" s="13"/>
       <c r="B105" s="13"/>
       <c r="C105" s="13"/>
@@ -5309,7 +5424,7 @@
       <c r="J105" s="14"/>
       <c r="K105" s="15"/>
     </row>
-    <row r="106" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" s="12" customFormat="1">
       <c r="A106" s="13"/>
       <c r="B106" s="13"/>
       <c r="C106" s="13"/>
@@ -5334,7 +5449,7 @@
       <c r="J106" s="14"/>
       <c r="K106" s="15"/>
     </row>
-    <row r="107" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" s="12" customFormat="1">
       <c r="A107" s="13"/>
       <c r="B107" s="13"/>
       <c r="C107" s="13"/>
@@ -5359,7 +5474,7 @@
       <c r="J107" s="14"/>
       <c r="K107" s="15"/>
     </row>
-    <row r="108" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" s="12" customFormat="1">
       <c r="A108" s="13"/>
       <c r="B108" s="13"/>
       <c r="C108" s="13"/>
@@ -5435,7 +5550,7 @@
     <hyperlink ref="B16" r:id="rId1" display="http://profesores.aulaplaneta.com/Materias/VisorCuadernos/tabid/243/UnidadID/421/Default.aspx"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId2"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -5446,25 +5561,25 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Hoja2"/>
+  <sheetPr codeName="Hoja2" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:K45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="72.25" style="32" customWidth="1"/>
-    <col min="2" max="2" width="11" style="32"/>
-    <col min="3" max="3" width="13.875" style="32" customWidth="1"/>
-    <col min="4" max="4" width="11.375" style="32" customWidth="1"/>
-    <col min="5" max="7" width="11" style="32"/>
+    <col min="1" max="1" width="72.1640625" style="32" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" style="32"/>
+    <col min="3" max="3" width="13.83203125" style="32" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" style="32" customWidth="1"/>
+    <col min="5" max="7" width="10.83203125" style="32"/>
     <col min="8" max="11" width="11" style="32" hidden="1" customWidth="1"/>
-    <col min="12" max="16384" width="11" style="32"/>
+    <col min="12" max="16384" width="10.83203125" style="32"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="16.5" thickBot="1">
       <c r="A1" s="108" t="s">
         <v>38</v>
       </c>
@@ -5474,7 +5589,7 @@
       <c r="E1" s="109"/>
       <c r="F1" s="110"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11">
       <c r="A2" s="40" t="s">
         <v>42</v>
       </c>
@@ -5486,7 +5601,7 @@
       <c r="E2" s="113"/>
       <c r="F2" s="42"/>
     </row>
-    <row r="3" spans="1:11" ht="63" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="63">
       <c r="A3" s="43" t="s">
         <v>43</v>
       </c>
@@ -5510,7 +5625,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="31.5">
       <c r="A4" s="40" t="s">
         <v>44</v>
       </c>
@@ -5538,7 +5653,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="79.5" thickBot="1">
       <c r="A5" s="43" t="s">
         <v>45</v>
       </c>
@@ -5565,7 +5680,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" ht="32.25" thickBot="1">
       <c r="A6" s="40" t="s">
         <v>10</v>
       </c>
@@ -5587,7 +5702,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" ht="48" thickBot="1">
       <c r="A7" s="43" t="s">
         <v>11</v>
       </c>
@@ -5614,7 +5729,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="47.25">
       <c r="A8" s="43" t="s">
         <v>53</v>
       </c>
@@ -5633,7 +5748,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="47.25">
       <c r="A9" s="43" t="s">
         <v>12</v>
       </c>
@@ -5652,7 +5767,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" ht="32.25" thickBot="1">
       <c r="A10" s="44" t="s">
         <v>36</v>
       </c>
@@ -5671,7 +5786,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11">
       <c r="I11" s="32" t="s">
         <v>32</v>
       </c>
@@ -5682,7 +5797,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" ht="16.5" thickBot="1">
       <c r="I12" s="32" t="s">
         <v>37</v>
       </c>
@@ -5693,7 +5808,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11">
       <c r="A13" s="108" t="s">
         <v>41</v>
       </c>
@@ -5712,7 +5827,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" ht="16.5" thickBot="1">
       <c r="A14" s="43"/>
       <c r="B14" s="41"/>
       <c r="C14" s="41"/>
@@ -5729,7 +5844,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11">
       <c r="A15" s="40" t="s">
         <v>46</v>
       </c>
@@ -5747,7 +5862,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="67.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="67.25" customHeight="1">
       <c r="A16" s="43" t="s">
         <v>47</v>
       </c>
@@ -5771,7 +5886,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="32.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" ht="32" customHeight="1" thickBot="1">
       <c r="A17" s="40" t="s">
         <v>44</v>
       </c>
@@ -5792,7 +5907,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" ht="79.5" thickBot="1">
       <c r="A18" s="43" t="s">
         <v>48</v>
       </c>
@@ -5813,7 +5928,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11">
       <c r="A19" s="40" t="s">
         <v>10</v>
       </c>
@@ -5832,7 +5947,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" ht="63.75" thickBot="1">
       <c r="A20" s="44" t="s">
         <v>51</v>
       </c>
@@ -5854,7 +5969,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11">
       <c r="H21" s="32" t="str">
         <f>IF(INDEX(H4:H7,H20)=H4,"MA",IF(INDEX(H4:H7,H20)=H5,"CN",IF(INDEX(H4:H7,H20)=H6,"CS",IF(INDEX(H4:H7,H20)=H7,"LE"))))</f>
         <v>LE</v>
@@ -5871,122 +5986,122 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11">
       <c r="K22" s="32">
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11">
       <c r="K23" s="32">
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11">
       <c r="K24" s="32">
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11">
       <c r="K25" s="32">
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11">
       <c r="K26" s="32">
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11">
       <c r="K27" s="32">
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11">
       <c r="K28" s="32">
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11">
       <c r="K29" s="32">
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11">
       <c r="K30" s="32">
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11">
       <c r="K31" s="32">
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11">
       <c r="K32" s="32">
         <v>29</v>
       </c>
     </row>
-    <row r="33" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="11:11">
       <c r="K33" s="32">
         <v>30</v>
       </c>
     </row>
-    <row r="34" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="11:11">
       <c r="K34" s="32">
         <v>31</v>
       </c>
     </row>
-    <row r="35" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="11:11">
       <c r="K35" s="32">
         <v>32</v>
       </c>
     </row>
-    <row r="36" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="11:11">
       <c r="K36" s="32">
         <v>33</v>
       </c>
     </row>
-    <row r="37" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="11:11">
       <c r="K37" s="32">
         <v>34</v>
       </c>
     </row>
-    <row r="38" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="11:11">
       <c r="K38" s="32">
         <v>35</v>
       </c>
     </row>
-    <row r="39" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="11:11">
       <c r="K39" s="32">
         <v>36</v>
       </c>
     </row>
-    <row r="40" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="11:11">
       <c r="K40" s="32">
         <v>37</v>
       </c>
     </row>
-    <row r="41" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="11:11">
       <c r="K41" s="32">
         <v>38</v>
       </c>
     </row>
-    <row r="42" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="11:11">
       <c r="K42" s="32">
         <v>39</v>
       </c>
     </row>
-    <row r="43" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="11:11">
       <c r="K43" s="32">
         <v>40</v>
       </c>
     </row>
-    <row r="44" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="11:11">
       <c r="K44" s="32">
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="11:11">
       <c r="K45" s="32" t="str">
         <f>CONCATENATE("REC",K44,0)</f>
         <v>REC10</v>
@@ -6005,169 +6120,182 @@
     <mergeCell ref="D7:F7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x14">
       <controls>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1030" r:id="rId4" name="Drop Down 6">
+            <control shapeId="1030" r:id="rId3" name="Drop Down 6">
               <controlPr defaultSize="0" autoLine="0" autoPict="0" macro="[0]!Listadesplegable2_Cambiar">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>2</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>15</xdr:row>
-                    <xdr:rowOff>485775</xdr:rowOff>
+                    <xdr:rowOff>482600</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>1019175</xdr:colOff>
+                    <xdr:colOff>1016000</xdr:colOff>
                     <xdr:row>15</xdr:row>
-                    <xdr:rowOff>714375</xdr:rowOff>
+                    <xdr:rowOff>711200</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
             </control>
           </mc:Choice>
+          <mc:Fallback/>
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1031" r:id="rId5" name="Drop Down 7">
+            <control shapeId="1031" r:id="rId4" name="Drop Down 7">
               <controlPr defaultSize="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>1019175</xdr:colOff>
+                    <xdr:colOff>1016000</xdr:colOff>
                     <xdr:row>15</xdr:row>
-                    <xdr:rowOff>485775</xdr:rowOff>
+                    <xdr:rowOff>482600</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>3</xdr:col>
-                    <xdr:colOff>828675</xdr:colOff>
+                    <xdr:colOff>825500</xdr:colOff>
                     <xdr:row>15</xdr:row>
-                    <xdr:rowOff>714375</xdr:rowOff>
+                    <xdr:rowOff>711200</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
             </control>
           </mc:Choice>
+          <mc:Fallback/>
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1032" r:id="rId6" name="Drop Down 8">
+            <control shapeId="1032" r:id="rId5" name="Drop Down 8">
               <controlPr defaultSize="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>15</xdr:row>
-                    <xdr:rowOff>485775</xdr:rowOff>
+                    <xdr:rowOff>482600</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>838200</xdr:colOff>
                     <xdr:row>15</xdr:row>
-                    <xdr:rowOff>714375</xdr:rowOff>
+                    <xdr:rowOff>711200</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
             </control>
           </mc:Choice>
+          <mc:Fallback/>
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1035" r:id="rId7" name="Drop Down 11">
+            <control shapeId="1035" r:id="rId6" name="Drop Down 11">
               <controlPr defaultSize="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>15</xdr:row>
-                    <xdr:rowOff>485775</xdr:rowOff>
+                    <xdr:rowOff>482600</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
                     <xdr:colOff>838200</xdr:colOff>
                     <xdr:row>15</xdr:row>
-                    <xdr:rowOff>714375</xdr:rowOff>
+                    <xdr:rowOff>711200</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
             </control>
           </mc:Choice>
+          <mc:Fallback/>
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1026" r:id="rId8" name="Drop Down 2">
+            <control shapeId="1026" r:id="rId7" name="Drop Down 2">
               <controlPr defaultSize="0" autoLine="0" autoPict="0" macro="[0]!Listadesplegable2_Cambiar">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>19050</xdr:colOff>
+                    <xdr:colOff>25400</xdr:colOff>
                     <xdr:row>4</xdr:row>
-                    <xdr:rowOff>9525</xdr:rowOff>
+                    <xdr:rowOff>12700</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>1038225</xdr:colOff>
+                    <xdr:colOff>1041400</xdr:colOff>
                     <xdr:row>4</xdr:row>
-                    <xdr:rowOff>238125</xdr:rowOff>
+                    <xdr:rowOff>241300</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
             </control>
           </mc:Choice>
+          <mc:Fallback/>
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1028" r:id="rId9" name="Drop Down 4">
+            <control shapeId="1028" r:id="rId8" name="Drop Down 4">
               <controlPr defaultSize="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>1047750</xdr:colOff>
+                    <xdr:colOff>1054100</xdr:colOff>
                     <xdr:row>4</xdr:row>
-                    <xdr:rowOff>9525</xdr:rowOff>
+                    <xdr:rowOff>12700</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>3</xdr:col>
-                    <xdr:colOff>866775</xdr:colOff>
+                    <xdr:colOff>863600</xdr:colOff>
                     <xdr:row>4</xdr:row>
-                    <xdr:rowOff>238125</xdr:rowOff>
+                    <xdr:rowOff>241300</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
             </control>
           </mc:Choice>
+          <mc:Fallback/>
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1029" r:id="rId10" name="Drop Down 5">
+            <control shapeId="1029" r:id="rId9" name="Drop Down 5">
               <controlPr defaultSize="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>19050</xdr:colOff>
+                    <xdr:colOff>25400</xdr:colOff>
                     <xdr:row>4</xdr:row>
-                    <xdr:rowOff>9525</xdr:rowOff>
+                    <xdr:rowOff>12700</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>4</xdr:row>
-                    <xdr:rowOff>238125</xdr:rowOff>
+                    <xdr:rowOff>241300</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
             </control>
           </mc:Choice>
+          <mc:Fallback/>
         </mc:AlternateContent>
       </controls>
     </mc:Choice>
+    <mc:Fallback/>
   </mc:AlternateContent>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -6180,23 +6308,23 @@
       <selection pane="bottomLeft" activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="21" style="32" customWidth="1"/>
-    <col min="2" max="2" width="22.25" style="32" customWidth="1"/>
-    <col min="3" max="3" width="17.375" style="32" customWidth="1"/>
-    <col min="4" max="4" width="10.875" style="32"/>
-    <col min="5" max="5" width="11.75" style="32" customWidth="1"/>
-    <col min="6" max="6" width="12.75" style="32" customWidth="1"/>
+    <col min="2" max="2" width="22.1640625" style="32" customWidth="1"/>
+    <col min="3" max="3" width="17.33203125" style="32" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" style="32"/>
+    <col min="5" max="5" width="11.6640625" style="32" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="32" customWidth="1"/>
     <col min="7" max="7" width="11" style="32" customWidth="1"/>
     <col min="8" max="8" width="24.5" style="32" customWidth="1"/>
-    <col min="9" max="9" width="22.25" style="32" customWidth="1"/>
-    <col min="10" max="10" width="20.75" style="32" customWidth="1"/>
+    <col min="9" max="9" width="22.1640625" style="32" customWidth="1"/>
+    <col min="10" max="10" width="20.6640625" style="32" customWidth="1"/>
     <col min="11" max="11" width="44.5" style="32" customWidth="1"/>
-    <col min="12" max="16384" width="10.875" style="32"/>
+    <col min="12" max="16384" width="10.83203125" style="32"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11">
       <c r="A1" s="122" t="s">
         <v>56</v>
       </c>
@@ -6224,7 +6352,7 @@
       <c r="I1" s="123"/>
       <c r="J1" s="123"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11">
       <c r="A2" s="122"/>
       <c r="B2" s="122"/>
       <c r="C2" s="122"/>
@@ -6242,7 +6370,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="53" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" s="53" customFormat="1">
       <c r="A3" s="52" t="s">
         <v>69</v>
       </c>
@@ -6266,7 +6394,7 @@
       <c r="I3" s="52"/>
       <c r="J3" s="52"/>
     </row>
-    <row r="4" spans="1:11" s="53" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" s="53" customFormat="1">
       <c r="A4" s="54" t="s">
         <v>57</v>
       </c>
@@ -6294,7 +6422,7 @@
       </c>
       <c r="J4" s="54"/>
     </row>
-    <row r="5" spans="1:11" s="53" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" s="53" customFormat="1">
       <c r="A5" s="55" t="s">
         <v>77</v>
       </c>
@@ -6322,7 +6450,7 @@
       </c>
       <c r="J5" s="56"/>
     </row>
-    <row r="6" spans="1:11" s="53" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" s="53" customFormat="1">
       <c r="A6" s="54" t="s">
         <v>58</v>
       </c>
@@ -6354,7 +6482,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="7" spans="1:11" s="53" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" s="53" customFormat="1" ht="25.5">
       <c r="A7" s="54" t="s">
         <v>80</v>
       </c>
@@ -6382,7 +6510,7 @@
       </c>
       <c r="J7" s="54"/>
     </row>
-    <row r="8" spans="1:11" s="53" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" s="53" customFormat="1" ht="25.5">
       <c r="A8" s="54" t="s">
         <v>82</v>
       </c>
@@ -6410,7 +6538,7 @@
       </c>
       <c r="J8" s="54"/>
     </row>
-    <row r="9" spans="1:11" s="53" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" s="53" customFormat="1">
       <c r="A9" s="54" t="s">
         <v>84</v>
       </c>
@@ -6438,7 +6566,7 @@
       </c>
       <c r="J9" s="54"/>
     </row>
-    <row r="10" spans="1:11" s="53" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" s="53" customFormat="1">
       <c r="A10" s="54" t="s">
         <v>86</v>
       </c>
@@ -6464,7 +6592,7 @@
       </c>
       <c r="J10" s="54"/>
     </row>
-    <row r="11" spans="1:11" s="53" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" s="53" customFormat="1" ht="25.5">
       <c r="A11" s="54" t="s">
         <v>89</v>
       </c>
@@ -6492,7 +6620,7 @@
       </c>
       <c r="J11" s="54"/>
     </row>
-    <row r="12" spans="1:11" s="53" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" s="53" customFormat="1">
       <c r="A12" s="54" t="s">
         <v>91</v>
       </c>
@@ -6520,7 +6648,7 @@
       </c>
       <c r="J12" s="54"/>
     </row>
-    <row r="13" spans="1:11" ht="63" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="63">
       <c r="A13" s="57" t="s">
         <v>93</v>
       </c>
@@ -6547,7 +6675,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11">
       <c r="A14" s="57" t="s">
         <v>97</v>
       </c>
@@ -6571,7 +6699,7 @@
       </c>
       <c r="J14" s="57"/>
     </row>
-    <row r="15" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" ht="31.5">
       <c r="A15" s="57" t="s">
         <v>99</v>
       </c>
@@ -6598,7 +6726,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="94.5">
       <c r="A16" s="59" t="s">
         <v>103</v>
       </c>
@@ -6627,7 +6755,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" ht="25.5">
       <c r="A17" s="54" t="s">
         <v>106</v>
       </c>
@@ -6656,12 +6784,12 @@
         <v>111</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11">
       <c r="A20" s="63" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11">
       <c r="A21" s="64" t="s">
         <v>113</v>
       </c>
@@ -6674,7 +6802,7 @@
       <c r="D21" s="65"/>
       <c r="E21" s="65"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11">
       <c r="A22" s="67" t="s">
         <v>114</v>
       </c>
@@ -6687,7 +6815,7 @@
       <c r="D22" s="68"/>
       <c r="E22" s="68"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11">
       <c r="A23" s="67" t="s">
         <v>115</v>
       </c>
@@ -6700,7 +6828,7 @@
       <c r="D23" s="68"/>
       <c r="E23" s="68"/>
     </row>
-    <row r="24" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" ht="31.5">
       <c r="A24" s="67" t="s">
         <v>116</v>
       </c>
@@ -6713,7 +6841,7 @@
       <c r="D24" s="68"/>
       <c r="E24" s="68"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11">
       <c r="A25" s="67" t="s">
         <v>117</v>
       </c>
@@ -6726,7 +6854,7 @@
       <c r="D25" s="68"/>
       <c r="E25" s="68"/>
     </row>
-    <row r="26" spans="1:11" ht="63" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" ht="63">
       <c r="A26" s="67" t="s">
         <v>118</v>
       </c>
@@ -6752,5 +6880,10 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>